--- a/biology/Histoire de la zoologie et de la botanique/Vladimir_Khrjanovski/Vladimir_Khrjanovski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vladimir_Khrjanovski/Vladimir_Khrjanovski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vladimir Guénnadiévitch Khrjanovski (en russe: Владимир Геннадьевич Хржановський; en allemand : Wladimir Gennadjewitsch Chrshanowski), né à Yalta en 1912 et mort à Kiev en 1985, est un botaniste soviétique d'origine ukrainienne[1] qui s'est particulièrement intéressé aux Rosaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vladimir Guénnadiévitch Khrjanovski (en russe: Владимир Геннадьевич Хржановський; en allemand : Wladimir Gennadjewitsch Chrshanowski), né à Yalta en 1912 et mort à Kiev en 1985, est un botaniste soviétique d'origine ukrainienne qui s'est particulièrement intéressé aux Rosaceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quelques espèces étudiées:
-Jusepczukia Chrshan[2].
+Jusepczukia Chrshan.
  Leucanthemum raciborskii Popov &amp; Chrshan. 1949
 Rosa iliensis Chrshan.
 Rosa koso-poljanskii Chrshan.</t>
@@ -545,10 +559,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Éponymes:
-(Rosaceae) Rosa chrshanovskii Dubovik[3]</t>
+(Rosaceae) Rosa chrshanovskii Dubovik</t>
         </is>
       </c>
     </row>
